--- a/public/demo/register_demo.xlsx
+++ b/public/demo/register_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -153,56 +153,6 @@
   </si>
   <si>
     <t>作风问题严肃处理</t>
-  </si>
-  <si>
-    <t>承办部门</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'ban'bu'men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>干部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>监</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <charset val="128"/>
-      </rPr>
-      <t>督室</t>
-    </r>
-  </si>
-  <si>
-    <t>其他部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>检查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <charset val="128"/>
-      </rPr>
-      <t>十四室</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集体排查意见及领导批示</t>
@@ -248,9 +198,6 @@
   </si>
   <si>
     <t>主要内容</t>
-  </si>
-  <si>
-    <t>承办部门</t>
   </si>
   <si>
     <t>工作单位及职务</t>
@@ -323,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,19 +293,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -402,15 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,16 +631,15 @@
     <col min="1" max="1" width="14.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -716,34 +647,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -753,32 +681,29 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -788,32 +713,29 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -823,61 +745,55 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -888,28 +804,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/demo/register_demo.xlsx
+++ b/public/demo/register_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/httproot/clue/public/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -623,13 +623,13 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
@@ -641,10 +641,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>29</v>
@@ -672,11 +672,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -704,11 +704,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -736,11 +736,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -794,11 +794,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
